--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject20.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject20.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -158,7 +158,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>0</v>
+        <v>0.77107284441925417</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
@@ -203,7 +203,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA1" s="0">
         <v>0</v>
@@ -227,7 +227,7 @@
         <v>0</v>
       </c>
       <c r="AH1" s="0">
-        <v>0</v>
+        <v>0.5290293059257023</v>
       </c>
       <c r="AI1" s="0">
         <v>0</v>
@@ -272,7 +272,7 @@
         <v>0</v>
       </c>
       <c r="AW1" s="0">
-        <v>0</v>
+        <v>0.55550720510460017</v>
       </c>
       <c r="AX1" s="0">
         <v>0</v>
@@ -352,13 +352,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0">
         <v>0</v>
       </c>
       <c r="I2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="0">
         <v>0</v>
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="0">
-        <v>0</v>
+        <v>0.56849398195618062</v>
       </c>
       <c r="U2" s="0">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="AY2" s="0">
-        <v>0</v>
+        <v>0.75229555906109735</v>
       </c>
       <c r="AZ2" s="0">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL2" s="0">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="0">
-        <v>0</v>
+        <v>0.67974851856674878</v>
       </c>
       <c r="M3" s="0">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="0">
-        <v>0</v>
+        <v>0.93683644217955919</v>
       </c>
       <c r="X3" s="0">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>0</v>
+        <v>0.95789417627719597</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="0">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="AV4" s="0">
-        <v>0</v>
+        <v>0.63803947635776703</v>
       </c>
       <c r="AW4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="0">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="0">
-        <v>0</v>
+        <v>0.8066995533635275</v>
       </c>
       <c r="BD4" s="0">
         <v>0</v>
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="0">
-        <v>0</v>
+        <v>0.78161266769158999</v>
       </c>
       <c r="J5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="0">
         <v>0</v>
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="0">
-        <v>0</v>
+        <v>0.80178961575265428</v>
       </c>
       <c r="N5" s="0">
         <v>0</v>
       </c>
       <c r="O5" s="0">
-        <v>0</v>
+        <v>0.90057425441872074</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="AY5" s="0">
-        <v>0</v>
+        <v>0.90028258763422664</v>
       </c>
       <c r="AZ5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.66165265461692924</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="0">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="0">
-        <v>0</v>
+        <v>0.58633895429290828</v>
       </c>
       <c r="X6" s="0">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="0">
-        <v>0</v>
+        <v>0.59983582479487396</v>
       </c>
       <c r="AH6" s="0">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0</v>
+        <v>0.74790295329714418</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="0">
         <v>0</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>0</v>
+        <v>0.88015106340697491</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.57070029534917988</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="0">
-        <v>0</v>
+        <v>0.77070309845957463</v>
       </c>
       <c r="AD7" s="0">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="0">
-        <v>0</v>
+        <v>0.67546410147144731</v>
       </c>
       <c r="AM7" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1514,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="AY7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="0">
         <v>0</v>
       </c>
       <c r="BA7" s="0">
-        <v>0</v>
+        <v>0.7718156878138116</v>
       </c>
       <c r="BB7" s="0">
         <v>0</v>
@@ -1627,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="T8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="0">
         <v>0</v>
       </c>
       <c r="V8" s="0">
-        <v>0</v>
+        <v>0.51811437381247827</v>
       </c>
       <c r="W8" s="0">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="0">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="0">
-        <v>0</v>
+        <v>0.69642787869131484</v>
       </c>
       <c r="BF8" s="0">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="0">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="BN8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO8" s="0">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>0.85291977505365746</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="AU9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="0">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="AY9" s="0">
-        <v>0</v>
+        <v>0.87665867222574678</v>
       </c>
       <c r="AZ9" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>0</v>
+        <v>0.59935855663366411</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="BP9" s="0">
-        <v>0</v>
+        <v>0.78680273325394823</v>
       </c>
     </row>
     <row r="10">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.59846397322674683</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2033,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="0">
-        <v>0</v>
+        <v>0.64271219455062889</v>
       </c>
       <c r="S10" s="0">
-        <v>0</v>
+        <v>0.99904683052185761</v>
       </c>
       <c r="T10" s="0">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="0">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="0">
-        <v>0</v>
+        <v>0.63791138183788798</v>
       </c>
       <c r="AL10" s="0">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="0">
         <v>0</v>
@@ -2120,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="AU10" s="0">
-        <v>1</v>
+        <v>0.9526902700489378</v>
       </c>
       <c r="AV10" s="0">
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>0</v>
+        <v>0.7354844758081952</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
       </c>
       <c r="AY10" s="0">
-        <v>0</v>
+        <v>0.61407849212781573</v>
       </c>
       <c r="AZ10" s="0">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="BN10" s="0">
-        <v>0</v>
+        <v>0.93641406804660199</v>
       </c>
       <c r="BO10" s="0">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0</v>
+        <v>0.99834465265485828</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.52239968028346939</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>0</v>
+        <v>0.71540252951647609</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="AH11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="0">
         <v>0</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0</v>
+        <v>0.96411032621373716</v>
       </c>
       <c r="AK11" s="0">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AT11" s="0">
-        <v>0</v>
+        <v>0.70103845924954733</v>
       </c>
       <c r="AU11" s="0">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="BI11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ11" s="0">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>0</v>
+        <v>0.60115146346063997</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AU12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="0">
         <v>0</v>
@@ -2547,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0</v>
+        <v>0.82266447750087723</v>
       </c>
       <c r="BA12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="0">
-        <v>0</v>
+        <v>0.69108335782037633</v>
       </c>
       <c r="BC12" s="0">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="BM12" s="0">
-        <v>0</v>
+        <v>0.79951378313505528</v>
       </c>
       <c r="BN12" s="0">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="BP12" s="0">
-        <v>1</v>
+        <v>0.73797816336856825</v>
       </c>
     </row>
     <row r="13">
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>0.71656055102281013</v>
       </c>
       <c r="F13" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="AB13" s="0">
-        <v>0</v>
+        <v>0.72081874993581185</v>
       </c>
       <c r="AC13" s="0">
         <v>0</v>
       </c>
       <c r="AD13" s="0">
-        <v>0</v>
+        <v>0.93430701165155783</v>
       </c>
       <c r="AE13" s="0">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="0">
-        <v>0</v>
+        <v>0.86036301143492611</v>
       </c>
       <c r="AH13" s="0">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="0">
-        <v>0</v>
+        <v>0.85247361465070004</v>
       </c>
       <c r="AK13" s="0">
         <v>0</v>
@@ -2720,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="AO13" s="0">
-        <v>0</v>
+        <v>0.76053420004686489</v>
       </c>
       <c r="AP13" s="0">
         <v>0</v>
       </c>
       <c r="AQ13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="0">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="0">
-        <v>0</v>
+        <v>0.54463819529626512</v>
       </c>
       <c r="AY13" s="0">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="BN13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO13" s="0">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="0">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>1</v>
+        <v>0.824118520295954</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="AM14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="0">
         <v>0</v>
@@ -2983,13 +2983,13 @@
         <v>0</v>
       </c>
       <c r="BH14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="0">
         <v>0</v>
       </c>
       <c r="BJ14" s="0">
-        <v>0</v>
+        <v>0.58955989831860722</v>
       </c>
       <c r="BK14" s="0">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>0</v>
+        <v>0.52819897301695273</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="0">
-        <v>0</v>
+        <v>0.51293980075135592</v>
       </c>
       <c r="Z15" s="0">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="0">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="0">
-        <v>0</v>
+        <v>0.80763406493072087</v>
       </c>
       <c r="AT15" s="0">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="BH15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="0">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>0</v>
+        <v>0.91791948648940924</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>0</v>
+        <v>0.98281998579342567</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="0">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AH16" s="0">
-        <v>0</v>
+        <v>0.94265738314335046</v>
       </c>
       <c r="AI16" s="0">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="0">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="0">
-        <v>0</v>
+        <v>0.74355790936812682</v>
       </c>
     </row>
     <row r="17">
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="0">
-        <v>0</v>
+        <v>0.67991255652680915</v>
       </c>
       <c r="W17" s="0">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="0">
-        <v>0</v>
+        <v>0.65776733239364238</v>
       </c>
       <c r="AA17" s="0">
         <v>0</v>
@@ -3562,19 +3562,19 @@
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>0</v>
+        <v>0.78124376682055185</v>
       </c>
       <c r="AV17" s="0">
         <v>0</v>
       </c>
       <c r="AW17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="0">
         <v>0</v>
       </c>
       <c r="AY17" s="0">
-        <v>0</v>
+        <v>0.87145542746889926</v>
       </c>
       <c r="AZ17" s="0">
         <v>0</v>
@@ -3592,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="BE17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="0">
         <v>0</v>
       </c>
       <c r="BG17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH17" s="0">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>0</v>
+        <v>0.93529686474217688</v>
       </c>
       <c r="K18" s="0">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="0">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="0">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AM18" s="0">
-        <v>0</v>
+        <v>0.7361078413166583</v>
       </c>
       <c r="AN18" s="0">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="0">
-        <v>1</v>
+        <v>0.80430716869264574</v>
       </c>
       <c r="AQ18" s="0">
         <v>0</v>
@@ -3807,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="BH18" s="0">
-        <v>0</v>
+        <v>0.64825384277809306</v>
       </c>
       <c r="BI18" s="0">
         <v>0</v>
       </c>
       <c r="BJ18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK18" s="0">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>0</v>
+        <v>0.77009467020724709</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="0">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="0">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="0">
-        <v>0</v>
+        <v>0.82014408833864438</v>
       </c>
       <c r="AT19" s="0">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="BN19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO19" s="0">
-        <v>0</v>
+        <v>0.64375047770680949</v>
       </c>
       <c r="BP19" s="0">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="0">
-        <v>0</v>
+        <v>0.77226798832662702</v>
       </c>
       <c r="C20" s="0">
         <v>0</v>
@@ -4057,13 +4057,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="0">
         <v>0</v>
       </c>
       <c r="H20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.66388372307043464</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AV20" s="0">
-        <v>0</v>
+        <v>0.51686306981130947</v>
       </c>
       <c r="AW20" s="0">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4287,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
       </c>
       <c r="P21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.72699323638621616</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="0">
-        <v>0</v>
+        <v>0.65419900003246778</v>
       </c>
       <c r="AL21" s="0">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="0">
-        <v>0</v>
+        <v>0.50581716867768234</v>
       </c>
       <c r="AO21" s="0">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="AV21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="0">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="0">
-        <v>0</v>
+        <v>0.68526600380219138</v>
       </c>
       <c r="BN21" s="0">
         <v>0</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0">
         <v>0</v>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="0">
-        <v>0</v>
+        <v>0.70205545925806301</v>
       </c>
       <c r="I22" s="0">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0</v>
+        <v>0.6438005578547138</v>
       </c>
       <c r="R22" s="0">
         <v>0</v>
@@ -4511,16 +4511,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.68476819397303679</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.75293692040184412</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0</v>
+        <v>0.66290194954581605</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="BE22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="0">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="0">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="0">
-        <v>0</v>
+        <v>0.7780314629053855</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="0">
-        <v>0</v>
+        <v>0.83264815049043417</v>
       </c>
       <c r="G23" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.58445191999401769</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.70166783256538567</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="0">
         <v>0</v>
@@ -4792,13 +4792,13 @@
         <v>0</v>
       </c>
       <c r="AS23" s="0">
-        <v>0</v>
+        <v>0.52776063675907103</v>
       </c>
       <c r="AT23" s="0">
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="0">
-        <v>0</v>
+        <v>0.72793470169676278</v>
       </c>
       <c r="BA23" s="0">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="BF23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="0">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="0">
-        <v>0</v>
+        <v>0.98662042016881957</v>
       </c>
       <c r="AN24" s="0">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="0">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="BD24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="0">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="BJ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK24" s="0">
         <v>0</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="BO24" s="0">
-        <v>0</v>
+        <v>0.57096218348559868</v>
       </c>
       <c r="BP24" s="0">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="0">
-        <v>0</v>
+        <v>0.80255103212412593</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.57208216151300673</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="0">
-        <v>0</v>
+        <v>0.93861856174351765</v>
       </c>
       <c r="BK25" s="0">
         <v>0</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>0</v>
+        <v>0.69563925291870154</v>
       </c>
       <c r="R26" s="0">
         <v>0</v>
@@ -5350,13 +5350,13 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5407,13 +5407,13 @@
         <v>0</v>
       </c>
       <c r="AR26" s="0">
-        <v>0</v>
+        <v>0.76625809349849683</v>
       </c>
       <c r="AS26" s="0">
         <v>0</v>
       </c>
       <c r="AT26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="0">
         <v>0</v>
@@ -5446,13 +5446,13 @@
         <v>0</v>
       </c>
       <c r="BE26" s="0">
-        <v>0</v>
+        <v>0.66477685681079479</v>
       </c>
       <c r="BF26" s="0">
         <v>0</v>
       </c>
       <c r="BG26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH26" s="0">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>1</v>
+        <v>0.9196524602988565</v>
       </c>
       <c r="O27" s="0">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.64215915313871208</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.54938018093566088</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.56743782069204596</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="0">
-        <v>0</v>
+        <v>0.71715138045993965</v>
       </c>
       <c r="AG27" s="0">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="BO27" s="0">
-        <v>0</v>
+        <v>0.55694874190841726</v>
       </c>
       <c r="BP27" s="0">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="0">
-        <v>0</v>
+        <v>0.82850426714565095</v>
       </c>
       <c r="N28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.85339843207296551</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5792,13 +5792,13 @@
         <v>0</v>
       </c>
       <c r="AI28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="0">
         <v>0</v>
       </c>
       <c r="AK28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="0">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="0">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="BC28" s="0">
-        <v>0</v>
+        <v>0.52838294728066038</v>
       </c>
       <c r="BD28" s="0">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="0">
-        <v>0</v>
+        <v>0.93800042302306275</v>
       </c>
       <c r="H29" s="0">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.88339950615928231</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,16 +5983,16 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.93772743337325459</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.85268710019080884</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
       </c>
       <c r="AG29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="0">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="0">
-        <v>0</v>
+        <v>0.65975271142833725</v>
       </c>
       <c r="AR29" s="0">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AW29" s="0">
-        <v>0</v>
+        <v>0.85105058332402739</v>
       </c>
       <c r="AX29" s="0">
         <v>0</v>
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="0">
-        <v>0</v>
+        <v>0.51649246808137161</v>
       </c>
       <c r="N30" s="0">
         <v>0</v>
@@ -6186,13 +6186,13 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.56189579103169329</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="0">
-        <v>0</v>
+        <v>0.77881288218880518</v>
       </c>
       <c r="AL30" s="0">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="BG30" s="0">
-        <v>0</v>
+        <v>0.82037752764993654</v>
       </c>
       <c r="BH30" s="0">
         <v>0</v>
@@ -6294,10 +6294,10 @@
         <v>0</v>
       </c>
       <c r="BM30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN30" s="0">
-        <v>0</v>
+        <v>0.54897278794503712</v>
       </c>
       <c r="BO30" s="0">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="0">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.85006278356569753</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="AH31" s="0">
-        <v>0</v>
+        <v>0.54240104803214806</v>
       </c>
       <c r="AI31" s="0">
         <v>0</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="AR31" s="0">
-        <v>0</v>
+        <v>0.88111633607467787</v>
       </c>
       <c r="AS31" s="0">
         <v>0</v>
@@ -6455,10 +6455,10 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="0">
-        <v>0</v>
+        <v>0.63724615033712995</v>
       </c>
       <c r="AZ31" s="0">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="0">
-        <v>0</v>
+        <v>0.60118496408278632</v>
       </c>
       <c r="AB32" s="0">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>0</v>
+        <v>0.89269417076916102</v>
       </c>
       <c r="AP32" s="0">
         <v>0</v>
@@ -6667,19 +6667,19 @@
         <v>0</v>
       </c>
       <c r="AZ32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="0">
         <v>0</v>
       </c>
       <c r="BB32" s="0">
-        <v>0</v>
+        <v>0.56876338461843035</v>
       </c>
       <c r="BC32" s="0">
         <v>0</v>
       </c>
       <c r="BD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE32" s="0">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="BG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH32" s="0">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="BL32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM32" s="0">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="BO32" s="0">
-        <v>0</v>
+        <v>0.94738725105354815</v>
       </c>
       <c r="BP32" s="0">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="0">
-        <v>0</v>
+        <v>0.88011583193298926</v>
       </c>
       <c r="G33" s="0">
         <v>0</v>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="0">
-        <v>0</v>
+        <v>0.79324246169817425</v>
       </c>
       <c r="N33" s="0">
         <v>0</v>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="0">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.6251856071514974</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="0">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AY33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="0">
         <v>0</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="BH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI33" s="0">
         <v>0</v>
@@ -6909,10 +6909,10 @@
         <v>0</v>
       </c>
       <c r="BL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>0</v>
+        <v>0.80638208778610565</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0</v>
+        <v>0.52868604948557252</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="0">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="0">
-        <v>0</v>
+        <v>0.8628961578036165</v>
       </c>
       <c r="Q34" s="0">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="0">
-        <v>0</v>
+        <v>0.73795248211346764</v>
       </c>
       <c r="AF34" s="0">
         <v>0</v>
@@ -7061,10 +7061,10 @@
         <v>0</v>
       </c>
       <c r="AT34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>1</v>
+        <v>0.6519935561100334</v>
       </c>
       <c r="AV34" s="0">
         <v>0</v>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="BF34" s="0">
-        <v>0</v>
+        <v>0.53105450854890135</v>
       </c>
       <c r="BG34" s="0">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.76663787000646999</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.56326606274324531</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="AY35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="0">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="BH35" s="0">
-        <v>0</v>
+        <v>0.75563829627080414</v>
       </c>
       <c r="BI35" s="0">
         <v>0</v>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="BO35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP35" s="0">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="0">
         <v>0</v>
@@ -7368,13 +7368,13 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>0</v>
+        <v>0.93687194518621419</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
       </c>
       <c r="M36" s="0">
-        <v>0</v>
+        <v>0.56697791409172682</v>
       </c>
       <c r="N36" s="0">
         <v>0</v>
@@ -7395,13 +7395,13 @@
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="0">
         <v>0</v>
       </c>
       <c r="V36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.95797595293973126</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="BE36" s="0">
-        <v>1</v>
+        <v>0.50969825540599412</v>
       </c>
       <c r="BF36" s="0">
         <v>0</v>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="0">
-        <v>0</v>
+        <v>0.63461617095409051</v>
       </c>
       <c r="K37" s="0">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
@@ -7601,10 +7601,10 @@
         <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="0">
-        <v>0</v>
+        <v>0.75834777055756564</v>
       </c>
       <c r="V37" s="0">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         <v>0</v>
       </c>
       <c r="AB37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="0">
         <v>0</v>
       </c>
       <c r="AD37" s="0">
-        <v>0</v>
+        <v>0.81242407624355928</v>
       </c>
       <c r="AE37" s="0">
         <v>0</v>
@@ -7697,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="0">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="0">
-        <v>0</v>
+        <v>0.55463434579414428</v>
       </c>
       <c r="H38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AW38" s="0">
-        <v>0</v>
+        <v>0.6819535689164371</v>
       </c>
       <c r="AX38" s="0">
         <v>0</v>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="BB38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC38" s="0">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="0">
-        <v>0</v>
+        <v>0.679674009463066</v>
       </c>
       <c r="BL38" s="0">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="BO38" s="0">
-        <v>0</v>
+        <v>0.59919620593341349</v>
       </c>
       <c r="BP38" s="0">
         <v>0</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="0">
         <v>0</v>
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="0">
-        <v>0</v>
+        <v>0.81094572714172042</v>
       </c>
       <c r="S39" s="0">
         <v>0</v>
@@ -8019,13 +8019,13 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0</v>
+        <v>0.73064928024204856</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
       </c>
       <c r="X39" s="0">
-        <v>0</v>
+        <v>0.90276471433785099</v>
       </c>
       <c r="Y39" s="0">
         <v>0</v>
@@ -8076,13 +8076,13 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
       </c>
       <c r="AQ39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="0">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="0">
-        <v>0</v>
+        <v>0.75034519476611639</v>
       </c>
       <c r="V40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>0</v>
       </c>
       <c r="AS40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="0">
-        <v>0</v>
+        <v>0.90246214608998976</v>
       </c>
       <c r="AU40" s="0">
         <v>0</v>
@@ -8321,13 +8321,13 @@
         <v>0</v>
       </c>
       <c r="BB40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC40" s="0">
         <v>0</v>
       </c>
       <c r="BD40" s="0">
-        <v>0</v>
+        <v>0.57318786587468851</v>
       </c>
       <c r="BE40" s="0">
         <v>0</v>
@@ -8339,10 +8339,10 @@
         <v>0</v>
       </c>
       <c r="BH40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI40" s="0">
-        <v>0</v>
+        <v>0.68316797753915193</v>
       </c>
       <c r="BJ40" s="0">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="BO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP40" s="0">
         <v>0</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="0">
-        <v>0</v>
+        <v>0.83758829612571495</v>
       </c>
       <c r="N41" s="0">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>0</v>
+        <v>0.92534717977290337</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8482,16 +8482,16 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0</v>
+        <v>0.7424410674453239</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="BI41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ41" s="0">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="BO41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0</v>
+        <v>0.64014141352909404</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>1</v>
+        <v>0.74386724255969472</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="0">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>0</v>
+        <v>0.78963581497153967</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>0</v>
+        <v>0.75674401682170966</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP42" s="0">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="0">
         <v>0</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="0">
-        <v>0</v>
+        <v>0.75593277194420283</v>
       </c>
       <c r="AD43" s="0">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="AG43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="0">
         <v>0</v>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="AM43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN43" s="0">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="AW43" s="0">
-        <v>0</v>
+        <v>0.68849364247409484</v>
       </c>
       <c r="AX43" s="0">
         <v>0</v>
       </c>
       <c r="AY43" s="0">
-        <v>0</v>
+        <v>0.54775675999477713</v>
       </c>
       <c r="AZ43" s="0">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="0">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="0">
         <v>0</v>
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="0">
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="0">
-        <v>0</v>
+        <v>0.53180135352992997</v>
       </c>
       <c r="AA44" s="0">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="0">
-        <v>0</v>
+        <v>0.7213240495598805</v>
       </c>
       <c r="AF44" s="0">
         <v>0</v>
@@ -9121,13 +9121,13 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.50281496220058075</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
       </c>
       <c r="AV44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>0</v>
+        <v>0.54083793448769413</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>0</v>
+        <v>0.71997112388058282</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0">
-        <v>0</v>
+        <v>0.74747635614111174</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="0">
-        <v>0</v>
+        <v>0.98156474422176432</v>
       </c>
       <c r="X45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="AN45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO45" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="0">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="BP45" s="0">
-        <v>0</v>
+        <v>0.52183301974987928</v>
       </c>
     </row>
     <row r="46">
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="0">
-        <v>0</v>
+        <v>0.92187372399845902</v>
       </c>
       <c r="L46" s="0">
         <v>0</v>
@@ -9473,13 +9473,13 @@
         <v>0</v>
       </c>
       <c r="Z46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="0">
         <v>0</v>
       </c>
       <c r="AB46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="0">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="AH46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="0">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="0">
-        <v>0</v>
+        <v>0.84277840252693537</v>
       </c>
       <c r="AO46" s="0">
         <v>0</v>
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.92513519067067818</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9554,10 +9554,10 @@
         <v>0</v>
       </c>
       <c r="BA46" s="0">
-        <v>0</v>
+        <v>0.89789944140969058</v>
       </c>
       <c r="BB46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC46" s="0">
         <v>0</v>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="BE46" s="0">
-        <v>0</v>
+        <v>0.84538314126991443</v>
       </c>
       <c r="BF46" s="0">
         <v>0</v>
@@ -9628,16 +9628,16 @@
         <v>0</v>
       </c>
       <c r="I47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="0">
-        <v>1</v>
+        <v>0.8963790587117314</v>
       </c>
       <c r="K47" s="0">
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0</v>
+        <v>0.85995891487148701</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" s="0">
         <v>0</v>
@@ -9703,10 +9703,10 @@
         <v>0</v>
       </c>
       <c r="AH47" s="0">
-        <v>1</v>
+        <v>0.67040440483189911</v>
       </c>
       <c r="AI47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>0</v>
+        <v>0.77534350920815531</v>
       </c>
       <c r="BM47" s="0">
         <v>0</v>
@@ -9802,10 +9802,10 @@
         <v>0</v>
       </c>
       <c r="BO47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>0</v>
+        <v>0.67217950358074685</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="0">
         <v>0</v>
@@ -9867,10 +9867,10 @@
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>0</v>
+        <v>0.6995682478660904</v>
       </c>
       <c r="U48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" s="0">
         <v>0</v>
@@ -9939,13 +9939,13 @@
         <v>0</v>
       </c>
       <c r="AR48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS48" s="0">
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="BC48" s="0">
-        <v>0</v>
+        <v>0.77903999443795013</v>
       </c>
       <c r="BD48" s="0">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="BF48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
@@ -10011,12 +10011,12 @@
         <v>0</v>
       </c>
       <c r="BP48" s="0">
-        <v>0</v>
+        <v>0.80573683740509638</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0</v>
+        <v>0.90005712158730766</v>
       </c>
       <c r="B49" s="0">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>0</v>
+        <v>0.60811659598002166</v>
       </c>
       <c r="K49" s="0">
         <v>0</v>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="0">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>0</v>
+        <v>0.56345633369391668</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="AL49" s="0">
-        <v>0</v>
+        <v>0.78408435902545492</v>
       </c>
       <c r="AM49" s="0">
         <v>0</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="0">
-        <v>0</v>
+        <v>0.73392735653890251</v>
       </c>
       <c r="AR49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10166,10 +10166,10 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="0">
-        <v>0</v>
+        <v>0.76492649182269834</v>
       </c>
       <c r="N50" s="0">
         <v>0</v>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="0">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="BP50" s="0">
-        <v>1</v>
+        <v>0.54979866931841537</v>
       </c>
     </row>
     <row r="51">
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="0">
-        <v>0</v>
+        <v>0.87643816505791317</v>
       </c>
       <c r="C51" s="0">
         <v>0</v>
@@ -10440,22 +10440,22 @@
         <v>0</v>
       </c>
       <c r="E51" s="0">
-        <v>0</v>
+        <v>0.5138232447407427</v>
       </c>
       <c r="F51" s="0">
         <v>0</v>
       </c>
       <c r="G51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="0">
         <v>0</v>
       </c>
       <c r="I51" s="0">
-        <v>0</v>
+        <v>0.58568771228286409</v>
       </c>
       <c r="J51" s="0">
-        <v>0</v>
+        <v>0.86988498074034681</v>
       </c>
       <c r="K51" s="0">
         <v>0</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>0</v>
+        <v>0.66194840763675966</v>
       </c>
       <c r="R51" s="0">
         <v>0</v>
@@ -10518,19 +10518,19 @@
         <v>0</v>
       </c>
       <c r="AE51" s="0">
-        <v>0</v>
+        <v>0.88896292029359802</v>
       </c>
       <c r="AF51" s="0">
         <v>0</v>
       </c>
       <c r="AG51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="0">
         <v>0</v>
       </c>
       <c r="AI51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="0">
         <v>0</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="0">
-        <v>0</v>
+        <v>0.78117691778350484</v>
       </c>
       <c r="AR51" s="0">
         <v>0</v>
@@ -10572,16 +10572,16 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.73357308873132332</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>0</v>
+        <v>0.66756844947668925</v>
       </c>
       <c r="M52" s="0">
         <v>0</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="0">
-        <v>0</v>
+        <v>0.91823739188943732</v>
       </c>
       <c r="X52" s="0">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="AF52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="0">
         <v>0</v>
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="0">
         <v>0</v>
@@ -10778,19 +10778,19 @@
         <v>0</v>
       </c>
       <c r="AW52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX52" s="0">
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.602704964560276</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.51283873586433604</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10799,13 +10799,13 @@
         <v>0</v>
       </c>
       <c r="BD52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE52" s="0">
         <v>0</v>
       </c>
       <c r="BF52" s="0">
-        <v>0</v>
+        <v>0.64585654410079862</v>
       </c>
       <c r="BG52" s="0">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="BN52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10855,10 +10855,10 @@
         <v>0</v>
       </c>
       <c r="F53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="0">
-        <v>0</v>
+        <v>0.72791291896214272</v>
       </c>
       <c r="H53" s="0">
         <v>0</v>
@@ -10873,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="0">
         <v>0</v>
@@ -10969,13 +10969,13 @@
         <v>0</v>
       </c>
       <c r="AR53" s="0">
-        <v>0</v>
+        <v>0.84113093833308328</v>
       </c>
       <c r="AS53" s="0">
         <v>0</v>
       </c>
       <c r="AT53" s="0">
-        <v>0</v>
+        <v>0.71247783992396974</v>
       </c>
       <c r="AU53" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.84077304778529394</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="0">
-        <v>0</v>
+        <v>0.67699546013193501</v>
       </c>
       <c r="M54" s="0">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="AF54" s="0">
-        <v>0</v>
+        <v>0.95054253104159936</v>
       </c>
       <c r="AG54" s="0">
         <v>0</v>
@@ -11157,19 +11157,19 @@
         <v>0</v>
       </c>
       <c r="AL54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="0">
         <v>0</v>
       </c>
       <c r="AN54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="0">
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>0</v>
+        <v>0.85226500998609034</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="AT54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU54" s="0">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="BM54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN54" s="0">
         <v>0</v>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="0">
-        <v>0</v>
+        <v>0.73875957062264441</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="0">
-        <v>0</v>
+        <v>0.62501359970820913</v>
       </c>
       <c r="AC55" s="0">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="AV55" s="0">
-        <v>0</v>
+        <v>0.88954845600421728</v>
       </c>
       <c r="AW55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="BK55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL55" s="0">
         <v>0</v>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="BO55" s="0">
-        <v>0</v>
+        <v>0.85747474566084136</v>
       </c>
       <c r="BP55" s="0">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="0">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="0">
         <v>0</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="0">
         <v>0</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="AN56" s="0">
-        <v>0</v>
+        <v>0.77691897494905504</v>
       </c>
       <c r="AO56" s="0">
         <v>0</v>
@@ -11611,7 +11611,7 @@
         <v>0</v>
       </c>
       <c r="AZ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA56" s="0">
         <v>0</v>
@@ -11620,16 +11620,16 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.51339478624678914</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11679,13 +11679,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>0</v>
+        <v>0.80965274284807631</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
       </c>
       <c r="H57" s="0">
-        <v>0</v>
+        <v>0.57601289882416318</v>
       </c>
       <c r="I57" s="0">
         <v>0</v>
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="0">
         <v>0</v>
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57" s="0">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>0</v>
+        <v>0.94276636734831187</v>
       </c>
       <c r="AA57" s="0">
         <v>0</v>
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="0">
-        <v>1</v>
+        <v>0.76875256896347899</v>
       </c>
       <c r="AK57" s="0">
         <v>0</v>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="AT57" s="0">
-        <v>0</v>
+        <v>0.62726248739318968</v>
       </c>
       <c r="AU57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" s="0">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="AH58" s="0">
-        <v>0</v>
+        <v>0.77903820819939518</v>
       </c>
       <c r="AI58" s="0">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW58" s="0">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="AZ58" s="0">
-        <v>0</v>
+        <v>0.79928307041722613</v>
       </c>
       <c r="BA58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.50602510213195862</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" s="0">
         <v>0</v>
@@ -12151,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="0">
         <v>0</v>
@@ -12163,13 +12163,13 @@
         <v>0</v>
       </c>
       <c r="AD59" s="0">
-        <v>0</v>
+        <v>0.64123821160697347</v>
       </c>
       <c r="AE59" s="0">
         <v>0</v>
       </c>
       <c r="AF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.82317374530422427</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12321,10 +12321,10 @@
         <v>0</v>
       </c>
       <c r="N60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="0">
-        <v>0</v>
+        <v>0.60887670035056585</v>
       </c>
       <c r="S60" s="0">
         <v>0</v>
@@ -12378,13 +12378,13 @@
         <v>0</v>
       </c>
       <c r="AG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60" s="0">
         <v>0</v>
       </c>
       <c r="AI60" s="0">
-        <v>0</v>
+        <v>0.63440755048571196</v>
       </c>
       <c r="AJ60" s="0">
         <v>0</v>
@@ -12399,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="AN60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO60" s="0">
         <v>0</v>
@@ -12462,13 +12462,13 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.99312352057801601</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
       </c>
       <c r="BK60" s="0">
-        <v>0</v>
+        <v>0.6608235859753584</v>
       </c>
       <c r="BL60" s="0">
         <v>0</v>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12605,10 +12605,10 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>0</v>
+        <v>0.97975715479563363</v>
       </c>
       <c r="AO61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP61" s="0">
         <v>0</v>
@@ -12662,16 +12662,16 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.69766662965063297</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.61756957753919117</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="BP61" s="0">
-        <v>0</v>
+        <v>0.78363537462572275</v>
       </c>
     </row>
     <row r="62">
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="0">
-        <v>0</v>
+        <v>0.53303533664361891</v>
       </c>
       <c r="O62" s="0">
         <v>0</v>
@@ -12745,7 +12745,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" s="0">
         <v>0</v>
@@ -12763,10 +12763,10 @@
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="0">
-        <v>0</v>
+        <v>0.68885670734078452</v>
       </c>
       <c r="Z62" s="0">
         <v>0</v>
@@ -12874,13 +12874,13 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.85469789114914507</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0</v>
+        <v>0.53098395262274045</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="BC63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD63" s="0">
         <v>0</v>
@@ -13077,22 +13077,22 @@
         <v>0</v>
       </c>
       <c r="BH63" s="0">
-        <v>0</v>
+        <v>0.97977653564643563</v>
       </c>
       <c r="BI63" s="0">
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.90381172546066924</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.87528398107438066</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="0">
-        <v>0</v>
+        <v>0.88082768822846647</v>
       </c>
       <c r="J64" s="0">
         <v>0</v>
@@ -13199,10 +13199,10 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH64" s="0">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>0</v>
+        <v>0.68513567500712003</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.70639821210319198</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.99697488892257957</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="0">
-        <v>0</v>
+        <v>0.87510284238655744</v>
       </c>
       <c r="M65" s="0">
         <v>0</v>
@@ -13372,10 +13372,10 @@
         <v>0</v>
       </c>
       <c r="U65" s="0">
-        <v>0</v>
+        <v>0.75089797590025031</v>
       </c>
       <c r="V65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65" s="0">
         <v>0</v>
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="AD65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="0">
         <v>0</v>
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="AG65" s="0">
-        <v>0</v>
+        <v>0.84248699566262353</v>
       </c>
       <c r="AH65" s="0">
         <v>0</v>
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="BB65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13539,13 +13539,13 @@
         <v>0</v>
       </c>
       <c r="H66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="0">
         <v>0</v>
       </c>
       <c r="J66" s="0">
-        <v>0</v>
+        <v>0.89903845139106753</v>
       </c>
       <c r="K66" s="0">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" s="0">
         <v>0</v>
@@ -13572,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="0">
         <v>0</v>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="AD66" s="0">
-        <v>0</v>
+        <v>0.83266634176139886</v>
       </c>
       <c r="AE66" s="0">
         <v>0</v>
@@ -13671,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="AZ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.60006321499624937</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.77497597845289179</v>
       </c>
     </row>
     <row r="67">
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>0</v>
+        <v>0.59017793667665397</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
@@ -13793,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="0">
-        <v>0</v>
+        <v>0.71901081471877071</v>
       </c>
       <c r="Y67" s="0">
         <v>0</v>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="AA67" s="0">
-        <v>0</v>
+        <v>0.90368238276128721</v>
       </c>
       <c r="AB67" s="0">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="AF67" s="0">
-        <v>0</v>
+        <v>0.71489134455310877</v>
       </c>
       <c r="AG67" s="0">
         <v>0</v>
@@ -13826,7 +13826,7 @@
         <v>0</v>
       </c>
       <c r="AI67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ67" s="0">
         <v>0</v>
@@ -13835,19 +13835,19 @@
         <v>0</v>
       </c>
       <c r="AL67" s="0">
-        <v>0</v>
+        <v>0.5547118405203143</v>
       </c>
       <c r="AM67" s="0">
         <v>0</v>
       </c>
       <c r="AN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="0">
         <v>0</v>
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="AU67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV67" s="0">
         <v>0</v>
@@ -13886,7 +13886,7 @@
         <v>0</v>
       </c>
       <c r="BC67" s="0">
-        <v>0</v>
+        <v>0.88443834144347544</v>
       </c>
       <c r="BD67" s="0">
         <v>0</v>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>0</v>
+        <v>0.86354063997574904</v>
       </c>
       <c r="J68" s="0">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="0">
-        <v>1</v>
+        <v>0.95095331397937044</v>
       </c>
       <c r="M68" s="0">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="0">
-        <v>0</v>
+        <v>0.7001569934450258</v>
       </c>
       <c r="Q68" s="0">
         <v>0</v>
@@ -14062,22 +14062,22 @@
         <v>0</v>
       </c>
       <c r="AS68" s="0">
-        <v>0</v>
+        <v>0.50252722790632376</v>
       </c>
       <c r="AT68" s="0">
         <v>0</v>
       </c>
       <c r="AU68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV68" s="0">
-        <v>0</v>
+        <v>0.86381799560638228</v>
       </c>
       <c r="AW68" s="0">
         <v>0</v>
       </c>
       <c r="AX68" s="0">
-        <v>1</v>
+        <v>0.53621529131006951</v>
       </c>
       <c r="AY68" s="0">
         <v>0</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="0">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="BI68" s="0">
-        <v>0</v>
+        <v>0.91852257240931334</v>
       </c>
       <c r="BJ68" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.92030682371297723</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject20.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject20.xlsx
@@ -158,7 +158,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>0.77107284441925417</v>
+        <v>0.99834465265485828</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
@@ -272,7 +272,7 @@
         <v>0</v>
       </c>
       <c r="AW1" s="0">
-        <v>0.55550720510460017</v>
+        <v>0.90005712158730766</v>
       </c>
       <c r="AX1" s="0">
         <v>0</v>
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="0">
-        <v>0.56849398195618062</v>
+        <v>0.77226798832662702</v>
       </c>
       <c r="U2" s="0">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="AY2" s="0">
-        <v>0.75229555906109735</v>
+        <v>0.87643816505791317</v>
       </c>
       <c r="AZ2" s="0">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="AV4" s="0">
-        <v>0.63803947635776703</v>
+        <v>0.67217950358074685</v>
       </c>
       <c r="AW4" s="0">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="0">
-        <v>0.78161266769158999</v>
+        <v>0.85291977505365746</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="0">
-        <v>0.58633895429290828</v>
+        <v>0.83264815049043417</v>
       </c>
       <c r="X6" s="0">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="0">
-        <v>0.59983582479487396</v>
+        <v>0.88011583193298926</v>
       </c>
       <c r="AH6" s="0">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0.57070029534917988</v>
+        <v>0.66165265461692924</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="0">
-        <v>0.77070309845957463</v>
+        <v>0.93800042302306275</v>
       </c>
       <c r="AD7" s="0">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="0">
-        <v>0.51811437381247827</v>
+        <v>0.70205545925806301</v>
       </c>
       <c r="W8" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>0.59935855663366411</v>
+        <v>0.88082768822846647</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="BP9" s="0">
-        <v>0.78680273325394823</v>
+        <v>0.86354063997574904</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="0">
-        <v>0.64271219455062889</v>
+        <v>0.93529686474217688</v>
       </c>
       <c r="S10" s="0">
         <v>0.99904683052185761</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="AY10" s="0">
-        <v>0.61407849212781573</v>
+        <v>0.86988498074034681</v>
       </c>
       <c r="AZ10" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0.52239968028346939</v>
+        <v>0.59846397322674683</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>0.71540252951647609</v>
+        <v>0.98281998579342567</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AT11" s="0">
-        <v>0.70103845924954733</v>
+        <v>0.92187372399845902</v>
       </c>
       <c r="AU11" s="0">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>0.60115146346063997</v>
+        <v>0.67974851856674878</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="BM12" s="0">
-        <v>0.79951378313505528</v>
+        <v>0.87510284238655744</v>
       </c>
       <c r="BN12" s="0">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="BP12" s="0">
-        <v>0.73797816336856825</v>
+        <v>0.95095331397937044</v>
       </c>
     </row>
     <row r="13">
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>0.71656055102281013</v>
+        <v>0.80178961575265428</v>
       </c>
       <c r="F13" s="0">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="0">
-        <v>0.72081874993581185</v>
+        <v>0.82850426714565095</v>
       </c>
       <c r="AC13" s="0">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="AO13" s="0">
-        <v>0.76053420004686489</v>
+        <v>0.83758829612571495</v>
       </c>
       <c r="AP13" s="0">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="0">
-        <v>0.54463819529626512</v>
+        <v>0.76492649182269834</v>
       </c>
       <c r="AY13" s="0">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>0.824118520295954</v>
+        <v>0.9196524602988565</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>0.52819897301695273</v>
+        <v>0.90057425441872074</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="0">
-        <v>0.51293980075135592</v>
+        <v>0.80255103212412593</v>
       </c>
       <c r="Z15" s="0">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>0.91791948648940924</v>
+        <v>0.95789417627719597</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="0">
-        <v>0.65776733239364238</v>
+        <v>0.69563925291870154</v>
       </c>
       <c r="AA17" s="0">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>0.78124376682055185</v>
+        <v>0.85995891487148701</v>
       </c>
       <c r="AV17" s="0">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AM18" s="0">
-        <v>0.7361078413166583</v>
+        <v>0.81094572714172042</v>
       </c>
       <c r="AN18" s="0">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>0.77009467020724709</v>
+        <v>0.99904683052185761</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.66388372307043464</v>
+        <v>0.68476819397303679</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AV20" s="0">
-        <v>0.51686306981130947</v>
+        <v>0.6995682478660904</v>
       </c>
       <c r="AW20" s="0">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="0">
-        <v>0.65419900003246778</v>
+        <v>0.75834777055756564</v>
       </c>
       <c r="AL21" s="0">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="0">
-        <v>0.50581716867768234</v>
+        <v>0.75034519476611639</v>
       </c>
       <c r="AO21" s="0">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="0">
-        <v>0.68526600380219138</v>
+        <v>0.75089797590025031</v>
       </c>
       <c r="BN21" s="0">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.6438005578547138</v>
+        <v>0.67991255652680915</v>
       </c>
       <c r="R22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0.66290194954581605</v>
+        <v>0.73064928024204856</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="0">
-        <v>0.7780314629053855</v>
+        <v>0.93683644217955919</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.58445191999401769</v>
+        <v>0.72699323638621616</v>
       </c>
       <c r="V23" s="0">
-        <v>0.70166783256538567</v>
+        <v>0.75293692040184412</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="0">
-        <v>0.52776063675907103</v>
+        <v>0.98156474422176432</v>
       </c>
       <c r="AT23" s="0">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="0">
-        <v>0.72793470169676278</v>
+        <v>0.91823739188943732</v>
       </c>
       <c r="BA23" s="0">
         <v>0</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="BO24" s="0">
-        <v>0.57096218348559868</v>
+        <v>0.71901081471877071</v>
       </c>
       <c r="BP24" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.57208216151300673</v>
+        <v>0.64215915313871208</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="0">
-        <v>0.66477685681079479</v>
+        <v>0.94276636734831187</v>
       </c>
       <c r="BF26" s="0">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.54938018093566088</v>
+        <v>0.85339843207296551</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.56743782069204596</v>
+        <v>0.88339950615928231</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="BO27" s="0">
-        <v>0.55694874190841726</v>
+        <v>0.90368238276128721</v>
       </c>
       <c r="BP27" s="0">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="BC28" s="0">
-        <v>0.52838294728066038</v>
+        <v>0.62501359970820913</v>
       </c>
       <c r="BD28" s="0">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="0">
-        <v>0.65975271142833725</v>
+        <v>0.75593277194420283</v>
       </c>
       <c r="AR29" s="0">
         <v>0</v>
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="0">
-        <v>0.51649246808137161</v>
+        <v>0.93430701165155783</v>
       </c>
       <c r="N30" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.56189579103169329</v>
+        <v>0.93772743337325459</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="0">
-        <v>0.77881288218880518</v>
+        <v>0.81242407624355928</v>
       </c>
       <c r="AL30" s="0">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="BN30" s="0">
-        <v>0.54897278794503712</v>
+        <v>0.83266634176139886</v>
       </c>
       <c r="BO30" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.85006278356569753</v>
+        <v>0.85268710019080884</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="AH31" s="0">
-        <v>0.54240104803214806</v>
+        <v>0.73795248211346764</v>
       </c>
       <c r="AI31" s="0">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="AY31" s="0">
-        <v>0.63724615033712995</v>
+        <v>0.88896292029359802</v>
       </c>
       <c r="AZ31" s="0">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="0">
-        <v>0.60118496408278632</v>
+        <v>0.71715138045993965</v>
       </c>
       <c r="AB32" s="0">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>0.89269417076916102</v>
+        <v>0.92534717977290337</v>
       </c>
       <c r="AP32" s="0">
         <v>0</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="BB32" s="0">
-        <v>0.56876338461843035</v>
+        <v>0.95054253104159936</v>
       </c>
       <c r="BC32" s="0">
         <v>0</v>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="0">
-        <v>0.79324246169817425</v>
+        <v>0.86036301143492611</v>
       </c>
       <c r="N33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.6251856071514974</v>
+        <v>0.76663787000646999</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>0.80638208778610565</v>
+        <v>0.84248699566262353</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.52868604948557252</v>
+        <v>0.5290293059257023</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="0">
-        <v>0.8628961578036165</v>
+        <v>0.94265738314335046</v>
       </c>
       <c r="Q34" s="0">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>0.6519935561100334</v>
+        <v>0.67040440483189911</v>
       </c>
       <c r="AV34" s="0">
         <v>0</v>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="BF34" s="0">
-        <v>0.53105450854890135</v>
+        <v>0.77903820819939518</v>
       </c>
       <c r="BG34" s="0">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.56326606274324531</v>
+        <v>0.95797595293973126</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7368,13 +7368,13 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>0.93687194518621419</v>
+        <v>0.96411032621373716</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
       </c>
       <c r="M36" s="0">
-        <v>0.56697791409172682</v>
+        <v>0.85247361465070004</v>
       </c>
       <c r="N36" s="0">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="BE36" s="0">
-        <v>0.50969825540599412</v>
+        <v>0.76875256896347899</v>
       </c>
       <c r="BF36" s="0">
         <v>0</v>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="0">
-        <v>0.63461617095409051</v>
+        <v>0.63791138183788798</v>
       </c>
       <c r="K37" s="0">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="0">
-        <v>0.55463434579414428</v>
+        <v>0.67546410147144731</v>
       </c>
       <c r="H38" s="0">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AW38" s="0">
-        <v>0.6819535689164371</v>
+        <v>0.78408435902545492</v>
       </c>
       <c r="AX38" s="0">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="0">
-        <v>0.90276471433785099</v>
+        <v>0.98662042016881957</v>
       </c>
       <c r="Y39" s="0">
         <v>0</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="BD40" s="0">
-        <v>0.57318786587468851</v>
+        <v>0.77691897494905504</v>
       </c>
       <c r="BE40" s="0">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="BI40" s="0">
-        <v>0.68316797753915193</v>
+        <v>0.97975715479563363</v>
       </c>
       <c r="BJ40" s="0">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.7424410674453239</v>
+        <v>0.78963581497153967</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0.64014141352909404</v>
+        <v>0.74790295329714418</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>0.74386724255969472</v>
+        <v>0.80430716869264574</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>0.75674401682170966</v>
+        <v>0.85226500998609034</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="AW43" s="0">
-        <v>0.68849364247409484</v>
+        <v>0.73392735653890251</v>
       </c>
       <c r="AX43" s="0">
         <v>0</v>
       </c>
       <c r="AY43" s="0">
-        <v>0.54775675999477713</v>
+        <v>0.78117691778350484</v>
       </c>
       <c r="AZ43" s="0">
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="0">
-        <v>0.53180135352992997</v>
+        <v>0.76625809349849683</v>
       </c>
       <c r="AA44" s="0">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="0">
-        <v>0.7213240495598805</v>
+        <v>0.88111633607467787</v>
       </c>
       <c r="AF44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.50281496220058075</v>
+        <v>0.92513519067067818</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>0.54083793448769413</v>
+        <v>0.84113093833308328</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>0.71997112388058282</v>
+        <v>0.80763406493072087</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0">
-        <v>0.74747635614111174</v>
+        <v>0.82014408833864438</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="0">
-        <v>0.84277840252693537</v>
+        <v>0.90246214608998976</v>
       </c>
       <c r="AO46" s="0">
         <v>0</v>
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="0">
-        <v>0.8963790587117314</v>
+        <v>0.9526902700489378</v>
       </c>
       <c r="K47" s="0">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="BC48" s="0">
-        <v>0.77903999443795013</v>
+        <v>0.88954845600421728</v>
       </c>
       <c r="BD48" s="0">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="BP48" s="0">
-        <v>0.80573683740509638</v>
+        <v>0.86381799560638228</v>
       </c>
     </row>
     <row r="49">
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>0.60811659598002166</v>
+        <v>0.7354844758081952</v>
       </c>
       <c r="K49" s="0">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>0.56345633369391668</v>
+        <v>0.85105058332402739</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="0">
-        <v>0.5138232447407427</v>
+        <v>0.90028258763422664</v>
       </c>
       <c r="F51" s="0">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="0">
-        <v>0.58568771228286409</v>
+        <v>0.87665867222574678</v>
       </c>
       <c r="J51" s="0">
         <v>0.86988498074034681</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>0.66194840763675966</v>
+        <v>0.87145542746889926</v>
       </c>
       <c r="R51" s="0">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>0.66756844947668925</v>
+        <v>0.82266447750087723</v>
       </c>
       <c r="M52" s="0">
         <v>0</v>
@@ -10784,13 +10784,13 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.602704964560276</v>
+        <v>0.73357308873132332</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.51283873586433604</v>
+        <v>0.84077304778529394</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="BF52" s="0">
-        <v>0.64585654410079862</v>
+        <v>0.79928307041722613</v>
       </c>
       <c r="BG52" s="0">
         <v>0</v>
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="0">
-        <v>0.72791291896214272</v>
+        <v>0.7718156878138116</v>
       </c>
       <c r="H53" s="0">
         <v>0</v>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="AT53" s="0">
-        <v>0.71247783992396974</v>
+        <v>0.89789944140969058</v>
       </c>
       <c r="AU53" s="0">
         <v>0</v>
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="0">
-        <v>0.67699546013193501</v>
+        <v>0.69108335782037633</v>
       </c>
       <c r="M54" s="0">
         <v>0</v>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="0">
-        <v>0.73875957062264441</v>
+        <v>0.8066995533635275</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="BO55" s="0">
-        <v>0.85747474566084136</v>
+        <v>0.88443834144347544</v>
       </c>
       <c r="BP55" s="0">
         <v>0</v>
@@ -11679,13 +11679,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>0.80965274284807631</v>
+        <v>0.88015106340697491</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
       </c>
       <c r="H57" s="0">
-        <v>0.57601289882416318</v>
+        <v>0.69642787869131484</v>
       </c>
       <c r="I57" s="0">
         <v>0</v>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="AT57" s="0">
-        <v>0.62726248739318968</v>
+        <v>0.84538314126991443</v>
       </c>
       <c r="AU57" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.50602510213195862</v>
+        <v>0.51339478624678914</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12163,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="AD59" s="0">
-        <v>0.64123821160697347</v>
+        <v>0.82037752764993654</v>
       </c>
       <c r="AE59" s="0">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="0">
-        <v>0.60887670035056585</v>
+        <v>0.64825384277809306</v>
       </c>
       <c r="S60" s="0">
         <v>0</v>
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="AI60" s="0">
-        <v>0.63440755048571196</v>
+        <v>0.75563829627080414</v>
       </c>
       <c r="AJ60" s="0">
         <v>0</v>
@@ -12468,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="BK60" s="0">
-        <v>0.6608235859753584</v>
+        <v>0.97977653564643563</v>
       </c>
       <c r="BL60" s="0">
         <v>0</v>
@@ -12662,10 +12662,10 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.69766662965063297</v>
+        <v>0.82317374530422427</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.61756957753919117</v>
+        <v>0.99312352057801601</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="BP61" s="0">
-        <v>0.78363537462572275</v>
+        <v>0.91852257240931334</v>
       </c>
     </row>
     <row r="62">
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="0">
-        <v>0.53303533664361891</v>
+        <v>0.58955989831860722</v>
       </c>
       <c r="O62" s="0">
         <v>0</v>
@@ -12766,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="0">
-        <v>0.68885670734078452</v>
+        <v>0.93861856174351765</v>
       </c>
       <c r="Z62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.85469789114914507</v>
+        <v>0.90381172546066924</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0.53098395262274045</v>
+        <v>0.679674009463066</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>0.68513567500712003</v>
+        <v>0.77534350920815531</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.70639821210319198</v>
+        <v>0.87528398107438066</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="0">
-        <v>0.89903845139106753</v>
+        <v>0.93641406804660199</v>
       </c>
       <c r="K66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.60006321499624937</v>
+        <v>0.99697488892257957</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.77497597845289179</v>
+        <v>0.92030682371297723</v>
       </c>
     </row>
     <row r="67">
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>0.59017793667665397</v>
+        <v>0.64375047770680949</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="AF67" s="0">
-        <v>0.71489134455310877</v>
+        <v>0.94738725105354815</v>
       </c>
       <c r="AG67" s="0">
         <v>0</v>
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="AL67" s="0">
-        <v>0.5547118405203143</v>
+        <v>0.59919620593341349</v>
       </c>
       <c r="AM67" s="0">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="0">
-        <v>0.7001569934450258</v>
+        <v>0.74355790936812682</v>
       </c>
       <c r="Q68" s="0">
         <v>0</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="0">
-        <v>0.50252722790632376</v>
+        <v>0.52183301974987928</v>
       </c>
       <c r="AT68" s="0">
         <v>0</v>
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="AX68" s="0">
-        <v>0.53621529131006951</v>
+        <v>0.54979866931841537</v>
       </c>
       <c r="AY68" s="0">
         <v>0</v>
